--- a/Week16/cv_results.xlsx
+++ b/Week16/cv_results.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\homework\ML-000\Week16\mr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\homework\ML-000\Week16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7BCADB1B-B271-4B9D-ACBE-9F2E41CA4984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23277613-54E7-4EB8-AC00-2D7877C11638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
     <sheet name="try1" sheetId="2" r:id="rId2"/>
-    <sheet name="try2" sheetId="3" r:id="rId3"/>
-    <sheet name="try3" sheetId="4" r:id="rId4"/>
-    <sheet name="try4" sheetId="5" r:id="rId5"/>
-    <sheet name="try5" sheetId="6" r:id="rId6"/>
-    <sheet name="try6" sheetId="7" r:id="rId7"/>
-    <sheet name="try7" sheetId="8" r:id="rId8"/>
-    <sheet name="try8" sheetId="9" r:id="rId9"/>
-    <sheet name="try9" sheetId="10" r:id="rId10"/>
-    <sheet name="try10" sheetId="11" r:id="rId11"/>
-    <sheet name="try11" sheetId="12" r:id="rId12"/>
-    <sheet name="try0" sheetId="13" r:id="rId13"/>
-    <sheet name="xgboost" sheetId="14" r:id="rId14"/>
-    <sheet name="catboost" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId3"/>
+    <sheet name="try2" sheetId="3" r:id="rId4"/>
+    <sheet name="try3" sheetId="4" r:id="rId5"/>
+    <sheet name="try4" sheetId="5" r:id="rId6"/>
+    <sheet name="try5" sheetId="6" r:id="rId7"/>
+    <sheet name="try6" sheetId="7" r:id="rId8"/>
+    <sheet name="try7" sheetId="8" r:id="rId9"/>
+    <sheet name="try8" sheetId="9" r:id="rId10"/>
+    <sheet name="try9" sheetId="10" r:id="rId11"/>
+    <sheet name="try10" sheetId="11" r:id="rId12"/>
+    <sheet name="try11" sheetId="12" r:id="rId13"/>
+    <sheet name="try0" sheetId="13" r:id="rId14"/>
+    <sheet name="xgboost" sheetId="14" r:id="rId15"/>
+    <sheet name="catboost" sheetId="15" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
   <si>
     <t>num_leaves</t>
   </si>
@@ -75,12 +77,36 @@
   <si>
     <t>depth</t>
   </si>
+  <si>
+    <t>提升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>各次尝试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi class</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>填缺失值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +266,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,8 +460,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -534,6 +579,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,12 +726,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1027,11 +1099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2651,7 +2723,1835 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <v>7.9380000000000006E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.5634999999999994E-2</v>
+      </c>
+      <c r="F2">
+        <v>59</v>
+      </c>
+      <c r="G2">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>77</v>
+      </c>
+      <c r="I2">
+        <v>124</v>
+      </c>
+      <c r="J2">
+        <v>352</v>
+      </c>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>7.9559999999999895E-2</v>
+      </c>
+      <c r="E3">
+        <v>7.5499999999999901E-2</v>
+      </c>
+      <c r="F3">
+        <v>87</v>
+      </c>
+      <c r="G3">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <v>81</v>
+      </c>
+      <c r="I3">
+        <v>198</v>
+      </c>
+      <c r="J3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <v>7.9579999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.6335E-2</v>
+      </c>
+      <c r="F4">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>210</v>
+      </c>
+      <c r="H4">
+        <v>163</v>
+      </c>
+      <c r="I4">
+        <v>186</v>
+      </c>
+      <c r="J4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.6530000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <v>117</v>
+      </c>
+      <c r="J5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.6814999999999994E-2</v>
+      </c>
+      <c r="F6">
+        <v>227</v>
+      </c>
+      <c r="G6">
+        <v>313</v>
+      </c>
+      <c r="H6">
+        <v>285</v>
+      </c>
+      <c r="I6">
+        <v>512</v>
+      </c>
+      <c r="J6">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="E7">
+        <v>7.4935000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>89</v>
+      </c>
+      <c r="H7">
+        <v>68</v>
+      </c>
+      <c r="I7">
+        <v>234</v>
+      </c>
+      <c r="J7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>7.9479999999999995E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.4325000000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>163</v>
+      </c>
+      <c r="G8">
+        <v>79</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>138</v>
+      </c>
+      <c r="J8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>0.02</v>
+      </c>
+      <c r="D9">
+        <v>7.9579999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>7.4929999999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>102</v>
+      </c>
+      <c r="G9">
+        <v>223</v>
+      </c>
+      <c r="H9">
+        <v>267</v>
+      </c>
+      <c r="I9">
+        <v>174</v>
+      </c>
+      <c r="J9">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+      <c r="D10">
+        <v>7.9579999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <v>7.5664999999999996E-2</v>
+      </c>
+      <c r="F10">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>129</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>141</v>
+      </c>
+      <c r="J10">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>7.9640000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>7.5255000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>221</v>
+      </c>
+      <c r="G11">
+        <v>437</v>
+      </c>
+      <c r="H11">
+        <v>370</v>
+      </c>
+      <c r="I11">
+        <v>641</v>
+      </c>
+      <c r="J11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+      <c r="D12">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="E12">
+        <v>7.0124999999999896E-2</v>
+      </c>
+      <c r="F12">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>558</v>
+      </c>
+      <c r="H12">
+        <v>48</v>
+      </c>
+      <c r="I12">
+        <v>83</v>
+      </c>
+      <c r="J12">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.03</v>
+      </c>
+      <c r="D13">
+        <v>7.9439999999999997E-2</v>
+      </c>
+      <c r="E13">
+        <v>7.3224999999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>424</v>
+      </c>
+      <c r="G13">
+        <v>153</v>
+      </c>
+      <c r="H13">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <v>195</v>
+      </c>
+      <c r="J13">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
+        <v>7.9439999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>237</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <v>170</v>
+      </c>
+      <c r="J14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.02</v>
+      </c>
+      <c r="D15">
+        <v>7.9559999999999895E-2</v>
+      </c>
+      <c r="E15">
+        <v>7.4569999999999997E-2</v>
+      </c>
+      <c r="F15">
+        <v>103</v>
+      </c>
+      <c r="G15">
+        <v>157</v>
+      </c>
+      <c r="H15">
+        <v>197</v>
+      </c>
+      <c r="I15">
+        <v>441</v>
+      </c>
+      <c r="J15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>7.9680000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>7.492E-2</v>
+      </c>
+      <c r="F16">
+        <v>206</v>
+      </c>
+      <c r="G16">
+        <v>446</v>
+      </c>
+      <c r="H16">
+        <v>262</v>
+      </c>
+      <c r="I16">
+        <v>697</v>
+      </c>
+      <c r="J16">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0.05</v>
+      </c>
+      <c r="D17">
+        <v>7.9239999999999894E-2</v>
+      </c>
+      <c r="E17">
+        <v>7.2840000000000002E-2</v>
+      </c>
+      <c r="F17">
+        <v>37</v>
+      </c>
+      <c r="G17">
+        <v>155</v>
+      </c>
+      <c r="H17">
+        <v>58</v>
+      </c>
+      <c r="I17">
+        <v>158</v>
+      </c>
+      <c r="J17">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>7.3234999999999995E-2</v>
+      </c>
+      <c r="F18">
+        <v>220</v>
+      </c>
+      <c r="G18">
+        <v>64</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18">
+        <v>164</v>
+      </c>
+      <c r="J18">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0.03</v>
+      </c>
+      <c r="D19">
+        <v>7.9420000000000004E-2</v>
+      </c>
+      <c r="E19">
+        <v>7.2954999999999895E-2</v>
+      </c>
+      <c r="F19">
+        <v>356</v>
+      </c>
+      <c r="G19">
+        <v>119</v>
+      </c>
+      <c r="H19">
+        <v>69</v>
+      </c>
+      <c r="I19">
+        <v>125</v>
+      </c>
+      <c r="J19">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+      <c r="D20">
+        <v>7.954E-2</v>
+      </c>
+      <c r="E20">
+        <v>7.3844999999999994E-2</v>
+      </c>
+      <c r="F20">
+        <v>115</v>
+      </c>
+      <c r="G20">
+        <v>179</v>
+      </c>
+      <c r="H20">
+        <v>113</v>
+      </c>
+      <c r="I20">
+        <v>382</v>
+      </c>
+      <c r="J20">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>0.01</v>
+      </c>
+      <c r="D21">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>7.5465000000000004E-2</v>
+      </c>
+      <c r="F21">
+        <v>222</v>
+      </c>
+      <c r="G21">
+        <v>303</v>
+      </c>
+      <c r="H21">
+        <v>236</v>
+      </c>
+      <c r="I21">
+        <v>338</v>
+      </c>
+      <c r="J21">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>0.02</v>
+      </c>
+      <c r="D22">
+        <v>7.9059999999999894E-2</v>
+      </c>
+      <c r="E22">
+        <v>7.2020000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>106</v>
+      </c>
+      <c r="G22">
+        <v>179</v>
+      </c>
+      <c r="H22">
+        <v>98</v>
+      </c>
+      <c r="I22">
+        <v>232</v>
+      </c>
+      <c r="J22">
+        <v>529</v>
+      </c>
+      <c r="K22">
+        <v>0.91783999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>7.9320000000000002E-2</v>
+      </c>
+      <c r="E23">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="F23">
+        <v>237</v>
+      </c>
+      <c r="G23">
+        <v>390</v>
+      </c>
+      <c r="H23">
+        <v>281</v>
+      </c>
+      <c r="I23">
+        <v>647</v>
+      </c>
+      <c r="J23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>0.05</v>
+      </c>
+      <c r="D24">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>7.2474999999999998E-2</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <v>94</v>
+      </c>
+      <c r="J24">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>0.04</v>
+      </c>
+      <c r="D25">
+        <v>7.9439999999999997E-2</v>
+      </c>
+      <c r="E25">
+        <v>7.1895000000000001E-2</v>
+      </c>
+      <c r="F25">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>87</v>
+      </c>
+      <c r="H25">
+        <v>67</v>
+      </c>
+      <c r="I25">
+        <v>257</v>
+      </c>
+      <c r="J25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0.03</v>
+      </c>
+      <c r="D26">
+        <v>7.9640000000000002E-2</v>
+      </c>
+      <c r="E26">
+        <v>7.1804999999999994E-2</v>
+      </c>
+      <c r="F26">
+        <v>63</v>
+      </c>
+      <c r="G26">
+        <v>95</v>
+      </c>
+      <c r="H26">
+        <v>65</v>
+      </c>
+      <c r="I26">
+        <v>284</v>
+      </c>
+      <c r="J26">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0.04</v>
+      </c>
+      <c r="D27">
+        <v>7.8920000000000004E-2</v>
+      </c>
+      <c r="E27">
+        <v>7.1035000000000001E-2</v>
+      </c>
+      <c r="F27">
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <v>72</v>
+      </c>
+      <c r="H27">
+        <v>67</v>
+      </c>
+      <c r="I27">
+        <v>230</v>
+      </c>
+      <c r="J27">
+        <v>229</v>
+      </c>
+      <c r="K27">
+        <v>0.91781999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>0.01</v>
+      </c>
+      <c r="D28">
+        <v>7.9079999999999998E-2</v>
+      </c>
+      <c r="E28">
+        <v>7.1194999999999994E-2</v>
+      </c>
+      <c r="F28">
+        <v>232</v>
+      </c>
+      <c r="G28">
+        <v>377</v>
+      </c>
+      <c r="H28">
+        <v>240</v>
+      </c>
+      <c r="I28">
+        <v>659</v>
+      </c>
+      <c r="J28">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>0.05</v>
+      </c>
+      <c r="D29">
+        <v>7.9219999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>7.2035000000000002E-2</v>
+      </c>
+      <c r="F29">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>105</v>
+      </c>
+      <c r="H29">
+        <v>62</v>
+      </c>
+      <c r="I29">
+        <v>111</v>
+      </c>
+      <c r="J29">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>0.02</v>
+      </c>
+      <c r="D30">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="E30">
+        <v>7.2299999999999906E-2</v>
+      </c>
+      <c r="F30">
+        <v>117</v>
+      </c>
+      <c r="G30">
+        <v>153</v>
+      </c>
+      <c r="H30">
+        <v>161</v>
+      </c>
+      <c r="I30">
+        <v>357</v>
+      </c>
+      <c r="J30">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>0.03</v>
+      </c>
+      <c r="D31">
+        <v>7.936E-2</v>
+      </c>
+      <c r="E31">
+        <v>7.1349999999999997E-2</v>
+      </c>
+      <c r="F31">
+        <v>218</v>
+      </c>
+      <c r="G31">
+        <v>93</v>
+      </c>
+      <c r="H31">
+        <v>73</v>
+      </c>
+      <c r="I31">
+        <v>160</v>
+      </c>
+      <c r="J31">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>0.02</v>
+      </c>
+      <c r="D32">
+        <v>7.9039999999999902E-2</v>
+      </c>
+      <c r="E32">
+        <v>7.0509999999999906E-2</v>
+      </c>
+      <c r="F32">
+        <v>105</v>
+      </c>
+      <c r="G32">
+        <v>182</v>
+      </c>
+      <c r="H32">
+        <v>122</v>
+      </c>
+      <c r="I32">
+        <v>318</v>
+      </c>
+      <c r="J32">
+        <v>601</v>
+      </c>
+      <c r="K32">
+        <v>0.91769999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0.04</v>
+      </c>
+      <c r="D33">
+        <v>7.9119999999999996E-2</v>
+      </c>
+      <c r="E33">
+        <v>7.1385000000000004E-2</v>
+      </c>
+      <c r="F33">
+        <v>53</v>
+      </c>
+      <c r="G33">
+        <v>91</v>
+      </c>
+      <c r="H33">
+        <v>61</v>
+      </c>
+      <c r="I33">
+        <v>239</v>
+      </c>
+      <c r="J33">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.05</v>
+      </c>
+      <c r="D34">
+        <v>7.9140000000000002E-2</v>
+      </c>
+      <c r="E34">
+        <v>6.6665000000000002E-2</v>
+      </c>
+      <c r="F34">
+        <v>356</v>
+      </c>
+      <c r="G34">
+        <v>81</v>
+      </c>
+      <c r="H34">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>81</v>
+      </c>
+      <c r="J34">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>0.01</v>
+      </c>
+      <c r="D35">
+        <v>7.9240000000000005E-2</v>
+      </c>
+      <c r="E35">
+        <v>7.1275000000000005E-2</v>
+      </c>
+      <c r="F35">
+        <v>219</v>
+      </c>
+      <c r="G35">
+        <v>383</v>
+      </c>
+      <c r="H35">
+        <v>257</v>
+      </c>
+      <c r="I35">
+        <v>435</v>
+      </c>
+      <c r="J35">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>0.03</v>
+      </c>
+      <c r="D36">
+        <v>7.9259999999999997E-2</v>
+      </c>
+      <c r="E36">
+        <v>7.0485000000000006E-2</v>
+      </c>
+      <c r="F36">
+        <v>222</v>
+      </c>
+      <c r="G36">
+        <v>117</v>
+      </c>
+      <c r="H36">
+        <v>103</v>
+      </c>
+      <c r="I36">
+        <v>138</v>
+      </c>
+      <c r="J36">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>0.04</v>
+      </c>
+      <c r="D37">
+        <v>7.9019999999999896E-2</v>
+      </c>
+      <c r="E37">
+        <v>6.9934999999999997E-2</v>
+      </c>
+      <c r="F37">
+        <v>132</v>
+      </c>
+      <c r="G37">
+        <v>68</v>
+      </c>
+      <c r="H37">
+        <v>67</v>
+      </c>
+      <c r="I37">
+        <v>176</v>
+      </c>
+      <c r="J37">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <v>7.9159999999999994E-2</v>
+      </c>
+      <c r="E38">
+        <v>7.2349999999999998E-2</v>
+      </c>
+      <c r="F38">
+        <v>208</v>
+      </c>
+      <c r="G38">
+        <v>326</v>
+      </c>
+      <c r="H38">
+        <v>247</v>
+      </c>
+      <c r="I38">
+        <v>374</v>
+      </c>
+      <c r="J38">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>0.02</v>
+      </c>
+      <c r="D39">
+        <v>7.9320000000000002E-2</v>
+      </c>
+      <c r="E39">
+        <v>6.9544999999999996E-2</v>
+      </c>
+      <c r="F39">
+        <v>96</v>
+      </c>
+      <c r="G39">
+        <v>143</v>
+      </c>
+      <c r="H39">
+        <v>130</v>
+      </c>
+      <c r="I39">
+        <v>502</v>
+      </c>
+      <c r="J39">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>0.03</v>
+      </c>
+      <c r="D40">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="E40">
+        <v>7.0455000000000004E-2</v>
+      </c>
+      <c r="F40">
+        <v>76</v>
+      </c>
+      <c r="G40">
+        <v>128</v>
+      </c>
+      <c r="H40">
+        <v>72</v>
+      </c>
+      <c r="I40">
+        <v>235</v>
+      </c>
+      <c r="J40">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>0.05</v>
+      </c>
+      <c r="D41">
+        <v>7.9640000000000002E-2</v>
+      </c>
+      <c r="E41">
+        <v>7.0735000000000006E-2</v>
+      </c>
+      <c r="F41">
+        <v>44</v>
+      </c>
+      <c r="G41">
+        <v>65</v>
+      </c>
+      <c r="H41">
+        <v>72</v>
+      </c>
+      <c r="I41">
+        <v>78</v>
+      </c>
+      <c r="J41">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6.9150000000000003E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>147</v>
+      </c>
+      <c r="G42" s="1">
+        <v>51</v>
+      </c>
+      <c r="H42" s="1">
+        <v>64</v>
+      </c>
+      <c r="I42" s="1">
+        <v>139</v>
+      </c>
+      <c r="J42" s="1">
+        <v>196</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.91793999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>0.02</v>
+      </c>
+      <c r="D43">
+        <v>7.9140000000000002E-2</v>
+      </c>
+      <c r="E43">
+        <v>7.0959999999999995E-2</v>
+      </c>
+      <c r="F43">
+        <v>105</v>
+      </c>
+      <c r="G43">
+        <v>177</v>
+      </c>
+      <c r="H43">
+        <v>168</v>
+      </c>
+      <c r="I43">
+        <v>339</v>
+      </c>
+      <c r="J43">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>0.04</v>
+      </c>
+      <c r="D44">
+        <v>7.9219999999999999E-2</v>
+      </c>
+      <c r="E44">
+        <v>6.9684999999999997E-2</v>
+      </c>
+      <c r="F44">
+        <v>52</v>
+      </c>
+      <c r="G44">
+        <v>70</v>
+      </c>
+      <c r="H44">
+        <v>63</v>
+      </c>
+      <c r="I44">
+        <v>168</v>
+      </c>
+      <c r="J44">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>0.01</v>
+      </c>
+      <c r="D45">
+        <v>7.9240000000000005E-2</v>
+      </c>
+      <c r="E45">
+        <v>7.1510000000000004E-2</v>
+      </c>
+      <c r="F45">
+        <v>216</v>
+      </c>
+      <c r="G45">
+        <v>367</v>
+      </c>
+      <c r="H45">
+        <v>267</v>
+      </c>
+      <c r="I45">
+        <v>396</v>
+      </c>
+      <c r="J45">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>0.03</v>
+      </c>
+      <c r="D46">
+        <v>7.9380000000000006E-2</v>
+      </c>
+      <c r="E46">
+        <v>7.0995000000000003E-2</v>
+      </c>
+      <c r="F46">
+        <v>69</v>
+      </c>
+      <c r="G46">
+        <v>99</v>
+      </c>
+      <c r="H46">
+        <v>106</v>
+      </c>
+      <c r="I46">
+        <v>225</v>
+      </c>
+      <c r="J46">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>0.03</v>
+      </c>
+      <c r="D47">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>7.0629999999999998E-2</v>
+      </c>
+      <c r="F47">
+        <v>72</v>
+      </c>
+      <c r="G47">
+        <v>96</v>
+      </c>
+      <c r="H47">
+        <v>67</v>
+      </c>
+      <c r="I47">
+        <v>215</v>
+      </c>
+      <c r="J47">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>0.04</v>
+      </c>
+      <c r="D48">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="E48">
+        <v>6.8654999999999994E-2</v>
+      </c>
+      <c r="F48">
+        <v>195</v>
+      </c>
+      <c r="G48">
+        <v>122</v>
+      </c>
+      <c r="H48">
+        <v>58</v>
+      </c>
+      <c r="I48">
+        <v>153</v>
+      </c>
+      <c r="J48">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>0.02</v>
+      </c>
+      <c r="D49">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="E49">
+        <v>6.9845000000000004E-2</v>
+      </c>
+      <c r="F49">
+        <v>111</v>
+      </c>
+      <c r="G49">
+        <v>145</v>
+      </c>
+      <c r="H49">
+        <v>98</v>
+      </c>
+      <c r="I49">
+        <v>508</v>
+      </c>
+      <c r="J49">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>0.05</v>
+      </c>
+      <c r="D50">
+        <v>7.9439999999999997E-2</v>
+      </c>
+      <c r="E50">
+        <v>7.06699999999999E-2</v>
+      </c>
+      <c r="F50">
+        <v>37</v>
+      </c>
+      <c r="G50">
+        <v>64</v>
+      </c>
+      <c r="H50">
+        <v>63</v>
+      </c>
+      <c r="I50">
+        <v>97</v>
+      </c>
+      <c r="J50">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>35</v>
+      </c>
+      <c r="C51">
+        <v>0.01</v>
+      </c>
+      <c r="D51">
+        <v>7.9579999999999998E-2</v>
+      </c>
+      <c r="E51">
+        <v>7.1940000000000004E-2</v>
+      </c>
+      <c r="F51">
+        <v>218</v>
+      </c>
+      <c r="G51">
+        <v>350</v>
+      </c>
+      <c r="H51">
+        <v>270</v>
+      </c>
+      <c r="I51">
+        <v>480</v>
+      </c>
+      <c r="J51">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="B52">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>0.03</v>
+      </c>
+      <c r="D52">
+        <v>7.9159999999999994E-2</v>
+      </c>
+      <c r="E52">
+        <v>6.8290000000000003E-2</v>
+      </c>
+      <c r="F52">
+        <v>77</v>
+      </c>
+      <c r="G52">
+        <v>102</v>
+      </c>
+      <c r="H52">
+        <v>83</v>
+      </c>
+      <c r="I52">
+        <v>368</v>
+      </c>
+      <c r="J52">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>0.04</v>
+      </c>
+      <c r="D53">
+        <v>7.9219999999999999E-2</v>
+      </c>
+      <c r="E53">
+        <v>6.6475000000000006E-2</v>
+      </c>
+      <c r="F53">
+        <v>188</v>
+      </c>
+      <c r="G53">
+        <v>73</v>
+      </c>
+      <c r="H53">
+        <v>62</v>
+      </c>
+      <c r="I53">
+        <v>167</v>
+      </c>
+      <c r="J53">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>0.02</v>
+      </c>
+      <c r="D54">
+        <v>7.9320000000000002E-2</v>
+      </c>
+      <c r="E54">
+        <v>7.1139999999999995E-2</v>
+      </c>
+      <c r="F54">
+        <v>113</v>
+      </c>
+      <c r="G54">
+        <v>195</v>
+      </c>
+      <c r="H54">
+        <v>132</v>
+      </c>
+      <c r="I54">
+        <v>342</v>
+      </c>
+      <c r="J54">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>39</v>
+      </c>
+      <c r="B55">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>0.05</v>
+      </c>
+      <c r="D55">
+        <v>7.9479999999999995E-2</v>
+      </c>
+      <c r="E55">
+        <v>6.9644999999999901E-2</v>
+      </c>
+      <c r="F55">
+        <v>42</v>
+      </c>
+      <c r="G55">
+        <v>78</v>
+      </c>
+      <c r="H55">
+        <v>58</v>
+      </c>
+      <c r="I55">
+        <v>162</v>
+      </c>
+      <c r="J55">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>0.01</v>
+      </c>
+      <c r="D56">
+        <v>7.9579999999999998E-2</v>
+      </c>
+      <c r="E56">
+        <v>7.2370000000000004E-2</v>
+      </c>
+      <c r="F56">
+        <v>208</v>
+      </c>
+      <c r="G56">
+        <v>312</v>
+      </c>
+      <c r="H56">
+        <v>264</v>
+      </c>
+      <c r="I56">
+        <v>241</v>
+      </c>
+      <c r="J56">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K56">
+    <sortCondition ref="B2:B56"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4935,12 +6835,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6266,8 +8166,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8574,20 +10474,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8615,8 +10516,23 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>41</v>
       </c>
@@ -8650,8 +10566,25 @@
       <c r="K2" s="1">
         <v>0.91856000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="3">
+        <f>M2-N2</f>
+        <v>6.4000000000008495E-4</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.91856000000000004</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.91791999999999996</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.91813999999999996</v>
+      </c>
+      <c r="P2" s="4">
+        <f>O2-N2</f>
+        <v>2.1999999999999797E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>54</v>
       </c>
@@ -8682,8 +10615,20 @@
       <c r="J3">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>0.91791999999999996</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.91818</v>
+      </c>
+      <c r="P3" s="4">
+        <f>O3-N3</f>
+        <v>2.6000000000003798E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>31</v>
       </c>
@@ -8714,8 +10659,20 @@
       <c r="J4">
         <v>361</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>0.91791999999999996</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.91803999999999997</v>
+      </c>
+      <c r="P4" s="4">
+        <f>O4-N4</f>
+        <v>1.2000000000000899E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>70</v>
       </c>
@@ -8746,8 +10703,20 @@
       <c r="J5">
         <v>375</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>0.91791999999999996</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.91822000000000004</v>
+      </c>
+      <c r="P5" s="4">
+        <f>O5-N5</f>
+        <v>3.0000000000007798E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
@@ -8778,8 +10747,20 @@
       <c r="J6">
         <v>247</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>0.91791999999999996</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.91818</v>
+      </c>
+      <c r="P6" s="4">
+        <f>O6-N6</f>
+        <v>2.6000000000003798E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>29</v>
       </c>
@@ -8810,8 +10791,19 @@
       <c r="J7">
         <v>496</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="3">
+        <f>M2-N2</f>
+        <v>6.4000000000008495E-4</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4">
+        <f>SUM(P2:P6)</f>
+        <v>1.1600000000001609E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>66</v>
       </c>
@@ -8843,7 +10835,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -8875,7 +10867,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>51</v>
       </c>
@@ -8907,7 +10899,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>53</v>
       </c>
@@ -8939,7 +10931,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>60</v>
       </c>
@@ -8971,7 +10963,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -9003,7 +10995,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>67</v>
       </c>
@@ -9035,7 +11027,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>58</v>
       </c>
@@ -9067,7 +11059,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>65</v>
       </c>
@@ -11025,11 +13017,12 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12043,8 +14036,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13215,11 +15208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13230,7 +15223,7 @@
     <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13262,7 +15255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -13293,8 +15286,12 @@
       <c r="J2" s="1">
         <v>0.91813999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <f>1-C2</f>
+        <v>0.92081999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -13323,7 +15320,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -13352,7 +15349,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
@@ -13381,7 +15378,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -13410,7 +15407,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18</v>
       </c>
@@ -13439,7 +15436,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -13468,7 +15465,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -13497,7 +15494,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -13526,7 +15523,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -13555,7 +15552,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -13584,7 +15581,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>30</v>
       </c>
@@ -13613,7 +15610,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>30</v>
       </c>
@@ -13642,7 +15639,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -13671,7 +15668,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18</v>
       </c>
@@ -14087,7 +16084,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C8DDE-53DF-4EC7-9D66-01E42B5BBB27}">
+  <dimension ref="B12:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.91830000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0.91732000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.19931499999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.160133</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1211</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1233</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1194</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1370</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.19944300000000001</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.16006500000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>397</v>
+      </c>
+      <c r="G17" s="5">
+        <v>406</v>
+      </c>
+      <c r="H17" s="5">
+        <v>442</v>
+      </c>
+      <c r="I17" s="5">
+        <v>411</v>
+      </c>
+      <c r="J17" s="5">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15296,12 +17383,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16217,12 +18304,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17711,8 +19798,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19691,12 +21778,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21199,8 +23286,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22858,1832 +24945,4 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>0.04</v>
-      </c>
-      <c r="D2">
-        <v>7.9380000000000006E-2</v>
-      </c>
-      <c r="E2">
-        <v>7.5634999999999994E-2</v>
-      </c>
-      <c r="F2">
-        <v>59</v>
-      </c>
-      <c r="G2">
-        <v>114</v>
-      </c>
-      <c r="H2">
-        <v>77</v>
-      </c>
-      <c r="I2">
-        <v>124</v>
-      </c>
-      <c r="J2">
-        <v>352</v>
-      </c>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3">
-        <v>7.9559999999999895E-2</v>
-      </c>
-      <c r="E3">
-        <v>7.5499999999999901E-2</v>
-      </c>
-      <c r="F3">
-        <v>87</v>
-      </c>
-      <c r="G3">
-        <v>124</v>
-      </c>
-      <c r="H3">
-        <v>81</v>
-      </c>
-      <c r="I3">
-        <v>198</v>
-      </c>
-      <c r="J3">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="D4">
-        <v>7.9579999999999998E-2</v>
-      </c>
-      <c r="E4">
-        <v>7.6335E-2</v>
-      </c>
-      <c r="F4">
-        <v>115</v>
-      </c>
-      <c r="G4">
-        <v>210</v>
-      </c>
-      <c r="H4">
-        <v>163</v>
-      </c>
-      <c r="I4">
-        <v>186</v>
-      </c>
-      <c r="J4">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>0.05</v>
-      </c>
-      <c r="D5">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="E5">
-        <v>7.6530000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>43</v>
-      </c>
-      <c r="G5">
-        <v>62</v>
-      </c>
-      <c r="H5">
-        <v>63</v>
-      </c>
-      <c r="I5">
-        <v>117</v>
-      </c>
-      <c r="J5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="E6">
-        <v>7.6814999999999994E-2</v>
-      </c>
-      <c r="F6">
-        <v>227</v>
-      </c>
-      <c r="G6">
-        <v>313</v>
-      </c>
-      <c r="H6">
-        <v>285</v>
-      </c>
-      <c r="I6">
-        <v>512</v>
-      </c>
-      <c r="J6">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>0.04</v>
-      </c>
-      <c r="D7">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="E7">
-        <v>7.4935000000000002E-2</v>
-      </c>
-      <c r="F7">
-        <v>58</v>
-      </c>
-      <c r="G7">
-        <v>89</v>
-      </c>
-      <c r="H7">
-        <v>68</v>
-      </c>
-      <c r="I7">
-        <v>234</v>
-      </c>
-      <c r="J7">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>0.05</v>
-      </c>
-      <c r="D8">
-        <v>7.9479999999999995E-2</v>
-      </c>
-      <c r="E8">
-        <v>7.4325000000000002E-2</v>
-      </c>
-      <c r="F8">
-        <v>163</v>
-      </c>
-      <c r="G8">
-        <v>79</v>
-      </c>
-      <c r="H8">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>138</v>
-      </c>
-      <c r="J8">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="D9">
-        <v>7.9579999999999998E-2</v>
-      </c>
-      <c r="E9">
-        <v>7.4929999999999997E-2</v>
-      </c>
-      <c r="F9">
-        <v>102</v>
-      </c>
-      <c r="G9">
-        <v>223</v>
-      </c>
-      <c r="H9">
-        <v>267</v>
-      </c>
-      <c r="I9">
-        <v>174</v>
-      </c>
-      <c r="J9">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>0.03</v>
-      </c>
-      <c r="D10">
-        <v>7.9579999999999998E-2</v>
-      </c>
-      <c r="E10">
-        <v>7.5664999999999996E-2</v>
-      </c>
-      <c r="F10">
-        <v>71</v>
-      </c>
-      <c r="G10">
-        <v>129</v>
-      </c>
-      <c r="H10">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <v>141</v>
-      </c>
-      <c r="J10">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>7.9640000000000002E-2</v>
-      </c>
-      <c r="E11">
-        <v>7.5255000000000002E-2</v>
-      </c>
-      <c r="F11">
-        <v>221</v>
-      </c>
-      <c r="G11">
-        <v>437</v>
-      </c>
-      <c r="H11">
-        <v>370</v>
-      </c>
-      <c r="I11">
-        <v>641</v>
-      </c>
-      <c r="J11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>0.05</v>
-      </c>
-      <c r="D12">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="E12">
-        <v>7.0124999999999896E-2</v>
-      </c>
-      <c r="F12">
-        <v>38</v>
-      </c>
-      <c r="G12">
-        <v>558</v>
-      </c>
-      <c r="H12">
-        <v>48</v>
-      </c>
-      <c r="I12">
-        <v>83</v>
-      </c>
-      <c r="J12">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>0.03</v>
-      </c>
-      <c r="D13">
-        <v>7.9439999999999997E-2</v>
-      </c>
-      <c r="E13">
-        <v>7.3224999999999998E-2</v>
-      </c>
-      <c r="F13">
-        <v>424</v>
-      </c>
-      <c r="G13">
-        <v>153</v>
-      </c>
-      <c r="H13">
-        <v>73</v>
-      </c>
-      <c r="I13">
-        <v>195</v>
-      </c>
-      <c r="J13">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>0.04</v>
-      </c>
-      <c r="D14">
-        <v>7.9439999999999997E-2</v>
-      </c>
-      <c r="E14">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="F14">
-        <v>237</v>
-      </c>
-      <c r="G14">
-        <v>105</v>
-      </c>
-      <c r="H14">
-        <v>75</v>
-      </c>
-      <c r="I14">
-        <v>170</v>
-      </c>
-      <c r="J14">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>0.02</v>
-      </c>
-      <c r="D15">
-        <v>7.9559999999999895E-2</v>
-      </c>
-      <c r="E15">
-        <v>7.4569999999999997E-2</v>
-      </c>
-      <c r="F15">
-        <v>103</v>
-      </c>
-      <c r="G15">
-        <v>157</v>
-      </c>
-      <c r="H15">
-        <v>197</v>
-      </c>
-      <c r="I15">
-        <v>441</v>
-      </c>
-      <c r="J15">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>0.01</v>
-      </c>
-      <c r="D16">
-        <v>7.9680000000000001E-2</v>
-      </c>
-      <c r="E16">
-        <v>7.492E-2</v>
-      </c>
-      <c r="F16">
-        <v>206</v>
-      </c>
-      <c r="G16">
-        <v>446</v>
-      </c>
-      <c r="H16">
-        <v>262</v>
-      </c>
-      <c r="I16">
-        <v>697</v>
-      </c>
-      <c r="J16">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>0.05</v>
-      </c>
-      <c r="D17">
-        <v>7.9239999999999894E-2</v>
-      </c>
-      <c r="E17">
-        <v>7.2840000000000002E-2</v>
-      </c>
-      <c r="F17">
-        <v>37</v>
-      </c>
-      <c r="G17">
-        <v>155</v>
-      </c>
-      <c r="H17">
-        <v>58</v>
-      </c>
-      <c r="I17">
-        <v>158</v>
-      </c>
-      <c r="J17">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>0.04</v>
-      </c>
-      <c r="D18">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="E18">
-        <v>7.3234999999999995E-2</v>
-      </c>
-      <c r="F18">
-        <v>220</v>
-      </c>
-      <c r="G18">
-        <v>64</v>
-      </c>
-      <c r="H18">
-        <v>90</v>
-      </c>
-      <c r="I18">
-        <v>164</v>
-      </c>
-      <c r="J18">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>0.03</v>
-      </c>
-      <c r="D19">
-        <v>7.9420000000000004E-2</v>
-      </c>
-      <c r="E19">
-        <v>7.2954999999999895E-2</v>
-      </c>
-      <c r="F19">
-        <v>356</v>
-      </c>
-      <c r="G19">
-        <v>119</v>
-      </c>
-      <c r="H19">
-        <v>69</v>
-      </c>
-      <c r="I19">
-        <v>125</v>
-      </c>
-      <c r="J19">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>0.02</v>
-      </c>
-      <c r="D20">
-        <v>7.954E-2</v>
-      </c>
-      <c r="E20">
-        <v>7.3844999999999994E-2</v>
-      </c>
-      <c r="F20">
-        <v>115</v>
-      </c>
-      <c r="G20">
-        <v>179</v>
-      </c>
-      <c r="H20">
-        <v>113</v>
-      </c>
-      <c r="I20">
-        <v>382</v>
-      </c>
-      <c r="J20">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>0.01</v>
-      </c>
-      <c r="D21">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="E21">
-        <v>7.5465000000000004E-2</v>
-      </c>
-      <c r="F21">
-        <v>222</v>
-      </c>
-      <c r="G21">
-        <v>303</v>
-      </c>
-      <c r="H21">
-        <v>236</v>
-      </c>
-      <c r="I21">
-        <v>338</v>
-      </c>
-      <c r="J21">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>0.02</v>
-      </c>
-      <c r="D22">
-        <v>7.9059999999999894E-2</v>
-      </c>
-      <c r="E22">
-        <v>7.2020000000000001E-2</v>
-      </c>
-      <c r="F22">
-        <v>106</v>
-      </c>
-      <c r="G22">
-        <v>179</v>
-      </c>
-      <c r="H22">
-        <v>98</v>
-      </c>
-      <c r="I22">
-        <v>232</v>
-      </c>
-      <c r="J22">
-        <v>529</v>
-      </c>
-      <c r="K22">
-        <v>0.91783999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>30</v>
-      </c>
-      <c r="C23">
-        <v>0.01</v>
-      </c>
-      <c r="D23">
-        <v>7.9320000000000002E-2</v>
-      </c>
-      <c r="E23">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="F23">
-        <v>237</v>
-      </c>
-      <c r="G23">
-        <v>390</v>
-      </c>
-      <c r="H23">
-        <v>281</v>
-      </c>
-      <c r="I23">
-        <v>647</v>
-      </c>
-      <c r="J23">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>36</v>
-      </c>
-      <c r="B24">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>0.05</v>
-      </c>
-      <c r="D24">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="E24">
-        <v>7.2474999999999998E-2</v>
-      </c>
-      <c r="F24">
-        <v>46</v>
-      </c>
-      <c r="G24">
-        <v>78</v>
-      </c>
-      <c r="H24">
-        <v>42</v>
-      </c>
-      <c r="I24">
-        <v>94</v>
-      </c>
-      <c r="J24">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>0.04</v>
-      </c>
-      <c r="D25">
-        <v>7.9439999999999997E-2</v>
-      </c>
-      <c r="E25">
-        <v>7.1895000000000001E-2</v>
-      </c>
-      <c r="F25">
-        <v>54</v>
-      </c>
-      <c r="G25">
-        <v>87</v>
-      </c>
-      <c r="H25">
-        <v>67</v>
-      </c>
-      <c r="I25">
-        <v>257</v>
-      </c>
-      <c r="J25">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>0.03</v>
-      </c>
-      <c r="D26">
-        <v>7.9640000000000002E-2</v>
-      </c>
-      <c r="E26">
-        <v>7.1804999999999994E-2</v>
-      </c>
-      <c r="F26">
-        <v>63</v>
-      </c>
-      <c r="G26">
-        <v>95</v>
-      </c>
-      <c r="H26">
-        <v>65</v>
-      </c>
-      <c r="I26">
-        <v>284</v>
-      </c>
-      <c r="J26">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>0.04</v>
-      </c>
-      <c r="D27">
-        <v>7.8920000000000004E-2</v>
-      </c>
-      <c r="E27">
-        <v>7.1035000000000001E-2</v>
-      </c>
-      <c r="F27">
-        <v>52</v>
-      </c>
-      <c r="G27">
-        <v>72</v>
-      </c>
-      <c r="H27">
-        <v>67</v>
-      </c>
-      <c r="I27">
-        <v>230</v>
-      </c>
-      <c r="J27">
-        <v>229</v>
-      </c>
-      <c r="K27">
-        <v>0.91781999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>0.01</v>
-      </c>
-      <c r="D28">
-        <v>7.9079999999999998E-2</v>
-      </c>
-      <c r="E28">
-        <v>7.1194999999999994E-2</v>
-      </c>
-      <c r="F28">
-        <v>232</v>
-      </c>
-      <c r="G28">
-        <v>377</v>
-      </c>
-      <c r="H28">
-        <v>240</v>
-      </c>
-      <c r="I28">
-        <v>659</v>
-      </c>
-      <c r="J28">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>31</v>
-      </c>
-      <c r="C29">
-        <v>0.05</v>
-      </c>
-      <c r="D29">
-        <v>7.9219999999999999E-2</v>
-      </c>
-      <c r="E29">
-        <v>7.2035000000000002E-2</v>
-      </c>
-      <c r="F29">
-        <v>34</v>
-      </c>
-      <c r="G29">
-        <v>105</v>
-      </c>
-      <c r="H29">
-        <v>62</v>
-      </c>
-      <c r="I29">
-        <v>111</v>
-      </c>
-      <c r="J29">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>0.02</v>
-      </c>
-      <c r="D30">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="E30">
-        <v>7.2299999999999906E-2</v>
-      </c>
-      <c r="F30">
-        <v>117</v>
-      </c>
-      <c r="G30">
-        <v>153</v>
-      </c>
-      <c r="H30">
-        <v>161</v>
-      </c>
-      <c r="I30">
-        <v>357</v>
-      </c>
-      <c r="J30">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>0.03</v>
-      </c>
-      <c r="D31">
-        <v>7.936E-2</v>
-      </c>
-      <c r="E31">
-        <v>7.1349999999999997E-2</v>
-      </c>
-      <c r="F31">
-        <v>218</v>
-      </c>
-      <c r="G31">
-        <v>93</v>
-      </c>
-      <c r="H31">
-        <v>73</v>
-      </c>
-      <c r="I31">
-        <v>160</v>
-      </c>
-      <c r="J31">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>0.02</v>
-      </c>
-      <c r="D32">
-        <v>7.9039999999999902E-2</v>
-      </c>
-      <c r="E32">
-        <v>7.0509999999999906E-2</v>
-      </c>
-      <c r="F32">
-        <v>105</v>
-      </c>
-      <c r="G32">
-        <v>182</v>
-      </c>
-      <c r="H32">
-        <v>122</v>
-      </c>
-      <c r="I32">
-        <v>318</v>
-      </c>
-      <c r="J32">
-        <v>601</v>
-      </c>
-      <c r="K32">
-        <v>0.91769999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>0.04</v>
-      </c>
-      <c r="D33">
-        <v>7.9119999999999996E-2</v>
-      </c>
-      <c r="E33">
-        <v>7.1385000000000004E-2</v>
-      </c>
-      <c r="F33">
-        <v>53</v>
-      </c>
-      <c r="G33">
-        <v>91</v>
-      </c>
-      <c r="H33">
-        <v>61</v>
-      </c>
-      <c r="I33">
-        <v>239</v>
-      </c>
-      <c r="J33">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>0.05</v>
-      </c>
-      <c r="D34">
-        <v>7.9140000000000002E-2</v>
-      </c>
-      <c r="E34">
-        <v>6.6665000000000002E-2</v>
-      </c>
-      <c r="F34">
-        <v>356</v>
-      </c>
-      <c r="G34">
-        <v>81</v>
-      </c>
-      <c r="H34">
-        <v>42</v>
-      </c>
-      <c r="I34">
-        <v>81</v>
-      </c>
-      <c r="J34">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>32</v>
-      </c>
-      <c r="C35">
-        <v>0.01</v>
-      </c>
-      <c r="D35">
-        <v>7.9240000000000005E-2</v>
-      </c>
-      <c r="E35">
-        <v>7.1275000000000005E-2</v>
-      </c>
-      <c r="F35">
-        <v>219</v>
-      </c>
-      <c r="G35">
-        <v>383</v>
-      </c>
-      <c r="H35">
-        <v>257</v>
-      </c>
-      <c r="I35">
-        <v>435</v>
-      </c>
-      <c r="J35">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>21</v>
-      </c>
-      <c r="B36">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <v>0.03</v>
-      </c>
-      <c r="D36">
-        <v>7.9259999999999997E-2</v>
-      </c>
-      <c r="E36">
-        <v>7.0485000000000006E-2</v>
-      </c>
-      <c r="F36">
-        <v>222</v>
-      </c>
-      <c r="G36">
-        <v>117</v>
-      </c>
-      <c r="H36">
-        <v>103</v>
-      </c>
-      <c r="I36">
-        <v>138</v>
-      </c>
-      <c r="J36">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <v>0.04</v>
-      </c>
-      <c r="D37">
-        <v>7.9019999999999896E-2</v>
-      </c>
-      <c r="E37">
-        <v>6.9934999999999997E-2</v>
-      </c>
-      <c r="F37">
-        <v>132</v>
-      </c>
-      <c r="G37">
-        <v>68</v>
-      </c>
-      <c r="H37">
-        <v>67</v>
-      </c>
-      <c r="I37">
-        <v>176</v>
-      </c>
-      <c r="J37">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>33</v>
-      </c>
-      <c r="C38">
-        <v>0.01</v>
-      </c>
-      <c r="D38">
-        <v>7.9159999999999994E-2</v>
-      </c>
-      <c r="E38">
-        <v>7.2349999999999998E-2</v>
-      </c>
-      <c r="F38">
-        <v>208</v>
-      </c>
-      <c r="G38">
-        <v>326</v>
-      </c>
-      <c r="H38">
-        <v>247</v>
-      </c>
-      <c r="I38">
-        <v>374</v>
-      </c>
-      <c r="J38">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>33</v>
-      </c>
-      <c r="C39">
-        <v>0.02</v>
-      </c>
-      <c r="D39">
-        <v>7.9320000000000002E-2</v>
-      </c>
-      <c r="E39">
-        <v>6.9544999999999996E-2</v>
-      </c>
-      <c r="F39">
-        <v>96</v>
-      </c>
-      <c r="G39">
-        <v>143</v>
-      </c>
-      <c r="H39">
-        <v>130</v>
-      </c>
-      <c r="I39">
-        <v>502</v>
-      </c>
-      <c r="J39">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>7</v>
-      </c>
-      <c r="B40">
-        <v>33</v>
-      </c>
-      <c r="C40">
-        <v>0.03</v>
-      </c>
-      <c r="D40">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="E40">
-        <v>7.0455000000000004E-2</v>
-      </c>
-      <c r="F40">
-        <v>76</v>
-      </c>
-      <c r="G40">
-        <v>128</v>
-      </c>
-      <c r="H40">
-        <v>72</v>
-      </c>
-      <c r="I40">
-        <v>235</v>
-      </c>
-      <c r="J40">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>13</v>
-      </c>
-      <c r="B41">
-        <v>33</v>
-      </c>
-      <c r="C41">
-        <v>0.05</v>
-      </c>
-      <c r="D41">
-        <v>7.9640000000000002E-2</v>
-      </c>
-      <c r="E41">
-        <v>7.0735000000000006E-2</v>
-      </c>
-      <c r="F41">
-        <v>44</v>
-      </c>
-      <c r="G41">
-        <v>65</v>
-      </c>
-      <c r="H41">
-        <v>72</v>
-      </c>
-      <c r="I41">
-        <v>78</v>
-      </c>
-      <c r="J41">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1">
-        <v>34</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7.8899999999999998E-2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>6.9150000000000003E-2</v>
-      </c>
-      <c r="F42" s="1">
-        <v>147</v>
-      </c>
-      <c r="G42" s="1">
-        <v>51</v>
-      </c>
-      <c r="H42" s="1">
-        <v>64</v>
-      </c>
-      <c r="I42" s="1">
-        <v>139</v>
-      </c>
-      <c r="J42" s="1">
-        <v>196</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0.91793999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>14</v>
-      </c>
-      <c r="B43">
-        <v>34</v>
-      </c>
-      <c r="C43">
-        <v>0.02</v>
-      </c>
-      <c r="D43">
-        <v>7.9140000000000002E-2</v>
-      </c>
-      <c r="E43">
-        <v>7.0959999999999995E-2</v>
-      </c>
-      <c r="F43">
-        <v>105</v>
-      </c>
-      <c r="G43">
-        <v>177</v>
-      </c>
-      <c r="H43">
-        <v>168</v>
-      </c>
-      <c r="I43">
-        <v>339</v>
-      </c>
-      <c r="J43">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>30</v>
-      </c>
-      <c r="B44">
-        <v>34</v>
-      </c>
-      <c r="C44">
-        <v>0.04</v>
-      </c>
-      <c r="D44">
-        <v>7.9219999999999999E-2</v>
-      </c>
-      <c r="E44">
-        <v>6.9684999999999997E-2</v>
-      </c>
-      <c r="F44">
-        <v>52</v>
-      </c>
-      <c r="G44">
-        <v>70</v>
-      </c>
-      <c r="H44">
-        <v>63</v>
-      </c>
-      <c r="I44">
-        <v>168</v>
-      </c>
-      <c r="J44">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>6</v>
-      </c>
-      <c r="B45">
-        <v>34</v>
-      </c>
-      <c r="C45">
-        <v>0.01</v>
-      </c>
-      <c r="D45">
-        <v>7.9240000000000005E-2</v>
-      </c>
-      <c r="E45">
-        <v>7.1510000000000004E-2</v>
-      </c>
-      <c r="F45">
-        <v>216</v>
-      </c>
-      <c r="G45">
-        <v>367</v>
-      </c>
-      <c r="H45">
-        <v>267</v>
-      </c>
-      <c r="I45">
-        <v>396</v>
-      </c>
-      <c r="J45">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>22</v>
-      </c>
-      <c r="B46">
-        <v>34</v>
-      </c>
-      <c r="C46">
-        <v>0.03</v>
-      </c>
-      <c r="D46">
-        <v>7.9380000000000006E-2</v>
-      </c>
-      <c r="E46">
-        <v>7.0995000000000003E-2</v>
-      </c>
-      <c r="F46">
-        <v>69</v>
-      </c>
-      <c r="G46">
-        <v>99</v>
-      </c>
-      <c r="H46">
-        <v>106</v>
-      </c>
-      <c r="I46">
-        <v>225</v>
-      </c>
-      <c r="J46">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>8</v>
-      </c>
-      <c r="B47">
-        <v>35</v>
-      </c>
-      <c r="C47">
-        <v>0.03</v>
-      </c>
-      <c r="D47">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E47">
-        <v>7.0629999999999998E-2</v>
-      </c>
-      <c r="F47">
-        <v>72</v>
-      </c>
-      <c r="G47">
-        <v>96</v>
-      </c>
-      <c r="H47">
-        <v>67</v>
-      </c>
-      <c r="I47">
-        <v>215</v>
-      </c>
-      <c r="J47">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48">
-        <v>35</v>
-      </c>
-      <c r="C48">
-        <v>0.04</v>
-      </c>
-      <c r="D48">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="E48">
-        <v>6.8654999999999994E-2</v>
-      </c>
-      <c r="F48">
-        <v>195</v>
-      </c>
-      <c r="G48">
-        <v>122</v>
-      </c>
-      <c r="H48">
-        <v>58</v>
-      </c>
-      <c r="I48">
-        <v>153</v>
-      </c>
-      <c r="J48">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>35</v>
-      </c>
-      <c r="C49">
-        <v>0.02</v>
-      </c>
-      <c r="D49">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="E49">
-        <v>6.9845000000000004E-2</v>
-      </c>
-      <c r="F49">
-        <v>111</v>
-      </c>
-      <c r="G49">
-        <v>145</v>
-      </c>
-      <c r="H49">
-        <v>98</v>
-      </c>
-      <c r="I49">
-        <v>508</v>
-      </c>
-      <c r="J49">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>14</v>
-      </c>
-      <c r="B50">
-        <v>35</v>
-      </c>
-      <c r="C50">
-        <v>0.05</v>
-      </c>
-      <c r="D50">
-        <v>7.9439999999999997E-2</v>
-      </c>
-      <c r="E50">
-        <v>7.06699999999999E-2</v>
-      </c>
-      <c r="F50">
-        <v>37</v>
-      </c>
-      <c r="G50">
-        <v>64</v>
-      </c>
-      <c r="H50">
-        <v>63</v>
-      </c>
-      <c r="I50">
-        <v>97</v>
-      </c>
-      <c r="J50">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>35</v>
-      </c>
-      <c r="C51">
-        <v>0.01</v>
-      </c>
-      <c r="D51">
-        <v>7.9579999999999998E-2</v>
-      </c>
-      <c r="E51">
-        <v>7.1940000000000004E-2</v>
-      </c>
-      <c r="F51">
-        <v>218</v>
-      </c>
-      <c r="G51">
-        <v>350</v>
-      </c>
-      <c r="H51">
-        <v>270</v>
-      </c>
-      <c r="I51">
-        <v>480</v>
-      </c>
-      <c r="J51">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>23</v>
-      </c>
-      <c r="B52">
-        <v>36</v>
-      </c>
-      <c r="C52">
-        <v>0.03</v>
-      </c>
-      <c r="D52">
-        <v>7.9159999999999994E-2</v>
-      </c>
-      <c r="E52">
-        <v>6.8290000000000003E-2</v>
-      </c>
-      <c r="F52">
-        <v>77</v>
-      </c>
-      <c r="G52">
-        <v>102</v>
-      </c>
-      <c r="H52">
-        <v>83</v>
-      </c>
-      <c r="I52">
-        <v>368</v>
-      </c>
-      <c r="J52">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>36</v>
-      </c>
-      <c r="C53">
-        <v>0.04</v>
-      </c>
-      <c r="D53">
-        <v>7.9219999999999999E-2</v>
-      </c>
-      <c r="E53">
-        <v>6.6475000000000006E-2</v>
-      </c>
-      <c r="F53">
-        <v>188</v>
-      </c>
-      <c r="G53">
-        <v>73</v>
-      </c>
-      <c r="H53">
-        <v>62</v>
-      </c>
-      <c r="I53">
-        <v>167</v>
-      </c>
-      <c r="J53">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>15</v>
-      </c>
-      <c r="B54">
-        <v>36</v>
-      </c>
-      <c r="C54">
-        <v>0.02</v>
-      </c>
-      <c r="D54">
-        <v>7.9320000000000002E-2</v>
-      </c>
-      <c r="E54">
-        <v>7.1139999999999995E-2</v>
-      </c>
-      <c r="F54">
-        <v>113</v>
-      </c>
-      <c r="G54">
-        <v>195</v>
-      </c>
-      <c r="H54">
-        <v>132</v>
-      </c>
-      <c r="I54">
-        <v>342</v>
-      </c>
-      <c r="J54">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>39</v>
-      </c>
-      <c r="B55">
-        <v>36</v>
-      </c>
-      <c r="C55">
-        <v>0.05</v>
-      </c>
-      <c r="D55">
-        <v>7.9479999999999995E-2</v>
-      </c>
-      <c r="E55">
-        <v>6.9644999999999901E-2</v>
-      </c>
-      <c r="F55">
-        <v>42</v>
-      </c>
-      <c r="G55">
-        <v>78</v>
-      </c>
-      <c r="H55">
-        <v>58</v>
-      </c>
-      <c r="I55">
-        <v>162</v>
-      </c>
-      <c r="J55">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>7</v>
-      </c>
-      <c r="B56">
-        <v>36</v>
-      </c>
-      <c r="C56">
-        <v>0.01</v>
-      </c>
-      <c r="D56">
-        <v>7.9579999999999998E-2</v>
-      </c>
-      <c r="E56">
-        <v>7.2370000000000004E-2</v>
-      </c>
-      <c r="F56">
-        <v>208</v>
-      </c>
-      <c r="G56">
-        <v>312</v>
-      </c>
-      <c r="H56">
-        <v>264</v>
-      </c>
-      <c r="I56">
-        <v>241</v>
-      </c>
-      <c r="J56">
-        <v>511</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K56">
-    <sortCondition ref="B2:B56"/>
-  </sortState>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>